--- a/Supply Chain.xlsx
+++ b/Supply Chain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zonii\Documents\Career\Python\Summer Research\Summer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tronschell/Documents/Python/SummerResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29508499-4C3D-4C21-AADF-B6BC2D6A7EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0843BB-8049-D54F-9B91-C33A18611A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="68">
   <si>
     <t>CIK</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Item 1, Item 1A, NOTES</t>
+  </si>
+  <si>
+    <t>Keyword 2</t>
+  </si>
+  <si>
+    <t>Affected?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>"restructuring" aka layoffs</t>
   </si>
 </sst>
 </file>
@@ -562,28 +574,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -592,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56701</v>
       </c>
@@ -602,6 +620,9 @@
       <c r="C2" t="s">
         <v>54</v>
       </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
@@ -609,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>895456</v>
       </c>
@@ -619,6 +640,9 @@
       <c r="C3" t="s">
         <v>53</v>
       </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
@@ -626,7 +650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>72333</v>
       </c>
@@ -636,6 +660,9 @@
       <c r="C4" t="s">
         <v>60</v>
       </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
@@ -643,7 +670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1641398</v>
       </c>
@@ -662,7 +689,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1580156</v>
       </c>
@@ -672,6 +699,12 @@
       <c r="C6" t="s">
         <v>63</v>
       </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
@@ -679,7 +712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1108426</v>
       </c>
@@ -689,6 +722,9 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
@@ -696,7 +732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1108967</v>
       </c>
@@ -713,7 +749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1120370</v>
       </c>
@@ -730,7 +766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1692412</v>
       </c>
@@ -747,7 +783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1783400</v>
       </c>
@@ -761,7 +797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>73124</v>
       </c>
@@ -778,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>845877</v>
       </c>
@@ -795,7 +831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>811589</v>
       </c>
@@ -812,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1601669</v>
       </c>
@@ -826,7 +862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>701347</v>
       </c>
@@ -843,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>858800</v>
       </c>
@@ -860,7 +896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1132651</v>
       </c>
@@ -877,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1143513</v>
       </c>
@@ -894,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1519401</v>
       </c>
@@ -908,7 +944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1005757</v>
       </c>
@@ -925,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>95029</v>
       </c>
@@ -942,7 +978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1022671</v>
       </c>
@@ -959,7 +995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16040</v>
       </c>
@@ -976,7 +1012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>949157</v>
       </c>
@@ -993,7 +1029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1374535</v>
       </c>
@@ -1010,7 +1046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1402829</v>
       </c>
@@ -1027,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>24741</v>
       </c>
@@ -1044,7 +1080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>60714</v>
       </c>
@@ -1061,7 +1097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1418819</v>
       </c>
@@ -1078,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>912093</v>
       </c>
@@ -1095,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>796505</v>
       </c>
@@ -1112,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>936468</v>
       </c>
@@ -1129,7 +1165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1093557</v>
       </c>
@@ -1146,7 +1182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1239819</v>
       </c>
@@ -1163,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1394056</v>
       </c>
@@ -1180,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>717423</v>
       </c>
@@ -1197,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1217234</v>
       </c>
@@ -1214,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1626971</v>
       </c>
@@ -1231,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1597313</v>
       </c>
@@ -1248,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1557142</v>
       </c>
@@ -1265,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1695357</v>
       </c>
@@ -1282,7 +1318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1348911</v>
       </c>
@@ -1299,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1501989</v>
       </c>
@@ -1316,7 +1352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1270073</v>
       </c>
@@ -1333,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1293818</v>
       </c>
@@ -1350,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>787253</v>
       </c>
@@ -1367,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1726173</v>
       </c>
@@ -1384,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>91419</v>
       </c>
@@ -1401,7 +1437,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1043509</v>
       </c>
@@ -1418,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1089063</v>
       </c>
